--- a/raw_data/finaldata.xlsx
+++ b/raw_data/finaldata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sli/Gov-50/global_poverty/SSA-poverty/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5452C3CA-1BD6-3D40-88D1-658CF4465285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF69797-EAB5-6C49-8893-4F29A332A50F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35060" yWindow="1780" windowWidth="34760" windowHeight="27020" activeTab="1" xr2:uid="{6F19D019-BD68-4337-AE13-BC7A6AF47C8F}"/>
+    <workbookView xWindow="35060" yWindow="1780" windowWidth="34760" windowHeight="27020" activeTab="2" xr2:uid="{6F19D019-BD68-4337-AE13-BC7A6AF47C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="region_poverty" sheetId="1" r:id="rId1"/>
-    <sheet name="country_poverty" sheetId="2" r:id="rId2"/>
-    <sheet name="country_GDPpc" sheetId="3" r:id="rId3"/>
+    <sheet name="country_poverty_long" sheetId="2" r:id="rId2"/>
+    <sheet name="country_poverty_wide" sheetId="5" r:id="rId3"/>
+    <sheet name="country_GDPpc" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="67">
   <si>
     <t>year</t>
   </si>
@@ -225,15 +226,34 @@
   <si>
     <t>poverty_rate</t>
   </si>
+  <si>
+    <t>region1</t>
+  </si>
+  <si>
+    <t>2021_MPO</t>
+  </si>
+  <si>
+    <t>2020_MPO</t>
+  </si>
+  <si>
+    <t>2019_MPO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,6 +330,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1840,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFA9AC6-2159-42CA-8261-37F920B5CF37}">
   <dimension ref="A1:R406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:R433"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3102,6 +3126,9 @@
       <c r="E56" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J56" s="8">
+        <v>31.97</v>
+      </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1"/>
     </row>
@@ -9762,10 +9789,1640 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A19D880-D1EB-F94B-B0D6-9ED47A5027E7}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>53.458379999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <v>54.337249999999997</v>
+      </c>
+      <c r="D2" s="2">
+        <v>54.358350000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>53.673250000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <v>56.753929999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <v>56.709029999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <v>53.569749999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>56.410580000000003</v>
+      </c>
+      <c r="J2" s="2">
+        <v>56.439369999999997</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>80.032200000000003</v>
+      </c>
+      <c r="C3" s="2">
+        <v>80.840289999999996</v>
+      </c>
+      <c r="D3" s="2">
+        <v>81.535960000000003</v>
+      </c>
+      <c r="E3" s="2">
+        <v>79.486949999999993</v>
+      </c>
+      <c r="F3" s="2">
+        <v>81.548150000000007</v>
+      </c>
+      <c r="G3" s="2">
+        <v>81.463859999999997</v>
+      </c>
+      <c r="H3" s="2">
+        <v>83.409899999999993</v>
+      </c>
+      <c r="I3" s="2">
+        <v>84.985900000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>85.574100000000001</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43.070239999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41.20711</v>
+      </c>
+      <c r="D4" s="2">
+        <v>39.174390000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42.95861</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43.381630000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42.298740000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45.360199999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45.652299999999997</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44.694850000000002</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>32.426920000000003</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30.142910000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27.86242</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32.621279999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>37.024880000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <v>36.20682</v>
+      </c>
+      <c r="H5" s="2">
+        <v>35.99541</v>
+      </c>
+      <c r="I5" s="2">
+        <v>37.898510000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>38.16957</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12.74516</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12.17029</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11.07841</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12.968579999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>17.11429</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14.87975</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12.421200000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15.97555</v>
+      </c>
+      <c r="J6" s="2">
+        <v>15.18756</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>70.416340000000005</v>
+      </c>
+      <c r="C7" s="2">
+        <v>69.486630000000005</v>
+      </c>
+      <c r="D7" s="2">
+        <v>68.678219999999996</v>
+      </c>
+      <c r="E7" s="2">
+        <v>70.781829999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>72.100769999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>71.502409999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>70.743510000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>71.629220000000004</v>
+      </c>
+      <c r="J7" s="2">
+        <v>71.40804</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20.886299999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>18.97232</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.257960000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>21.20955</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21.633240000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>19.8963</v>
+      </c>
+      <c r="H8" s="2">
+        <v>26.168399999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>26.300650000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>25.83426</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22.740590000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>22.105440000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21.33549</v>
+      </c>
+      <c r="E9" s="2">
+        <v>22.740590000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>24.887879999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>24.62425</v>
+      </c>
+      <c r="H9" s="2">
+        <v>24.433</v>
+      </c>
+      <c r="I9" s="2">
+        <v>25.32122</v>
+      </c>
+      <c r="J9" s="2">
+        <v>25.246479999999998</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>70.964020000000005</v>
+      </c>
+      <c r="C10" s="2">
+        <v>70.596950000000007</v>
+      </c>
+      <c r="D10" s="2">
+        <v>70.430049999999994</v>
+      </c>
+      <c r="E10" s="2">
+        <v>70.875370000000004</v>
+      </c>
+      <c r="F10" s="2">
+        <v>73.239490000000004</v>
+      </c>
+      <c r="G10" s="2">
+        <v>73.035480000000007</v>
+      </c>
+      <c r="H10" s="2">
+        <v>72.604479999999995</v>
+      </c>
+      <c r="I10" s="2">
+        <v>74.055269999999993</v>
+      </c>
+      <c r="J10" s="2">
+        <v>73.965599999999995</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>40.585140000000003</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40.49051</v>
+      </c>
+      <c r="D11" s="2">
+        <v>40.701059999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>42.171320000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>46.593980000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <v>48.22128</v>
+      </c>
+      <c r="H11" s="2">
+        <v>40.863370000000003</v>
+      </c>
+      <c r="I11" s="2">
+        <v>43.068950000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44.052419999999998</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>18.806999999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18.318280000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18.105039999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18.643719999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20.214030000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20.17558</v>
+      </c>
+      <c r="H12" s="2">
+        <v>18.564589999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>19.642150000000001</v>
+      </c>
+      <c r="J12" s="2">
+        <v>19.208069999999999</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.1265580000000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.846063</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.66873</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.030249</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.8317600000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.5439989999999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.2652509999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.971109</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.384466</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20.606539999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>18.393750000000001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16.214919999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20.43458</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20.238309999999998</v>
+      </c>
+      <c r="G14" s="2">
+        <v>21.057210000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>27.848510000000001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>27.707319999999999</v>
+      </c>
+      <c r="J14" s="2">
+        <v>27.491800000000001</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.3852410000000002</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.2877290000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.1182609999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.3276129999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.6132110000000002</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3.5491160000000002</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3.368131</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3.4736729999999998</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3.4739140000000002</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10.955640000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10.257809999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9.6951490000000007</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11.112399999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11.313890000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10.86318</v>
+      </c>
+      <c r="H16" s="2">
+        <v>11.083410000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>11.23906</v>
+      </c>
+      <c r="J16" s="2">
+        <v>11.306340000000001</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20.88035</v>
+      </c>
+      <c r="C17" s="2">
+        <v>19.544750000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18.023949999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>21.05791</v>
+      </c>
+      <c r="F17" s="2">
+        <v>21.40605</v>
+      </c>
+      <c r="G17" s="2">
+        <v>19.806940000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>24.717569999999998</v>
+      </c>
+      <c r="I17" s="2">
+        <v>24.213629999999998</v>
+      </c>
+      <c r="J17" s="2">
+        <v>22.942409999999999</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8.2114580000000004</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7.0353830000000004</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.5066249999999997</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8.2922349999999998</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.7213139999999996</v>
+      </c>
+      <c r="G18" s="2">
+        <v>8.8639790000000005</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8.3826870000000007</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9.6480420000000002</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9.6451770000000003</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <v>62.553040000000003</v>
+      </c>
+      <c r="C19" s="2">
+        <v>61.074849999999998</v>
+      </c>
+      <c r="D19" s="2">
+        <v>59.689639999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>62.553040000000003</v>
+      </c>
+      <c r="F19" s="2">
+        <v>65.04128</v>
+      </c>
+      <c r="G19" s="2">
+        <v>64.671660000000003</v>
+      </c>
+      <c r="H19" s="2">
+        <v>62.754010000000001</v>
+      </c>
+      <c r="I19" s="2">
+        <v>65.403369999999995</v>
+      </c>
+      <c r="J19" s="2">
+        <v>64.927859999999995</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2">
+        <v>31.316859999999998</v>
+      </c>
+      <c r="C20" s="2">
+        <v>29.568850000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>27.909089999999999</v>
+      </c>
+      <c r="E20" s="2">
+        <v>31.262180000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>31.974160000000001</v>
+      </c>
+      <c r="G20" s="2">
+        <v>30.7165</v>
+      </c>
+      <c r="H20" s="2">
+        <v>33.996740000000003</v>
+      </c>
+      <c r="I20" s="2">
+        <v>33.813510000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <v>33.239289999999997</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2">
+        <v>46.238219999999998</v>
+      </c>
+      <c r="C21" s="2">
+        <v>46.775269999999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>47.610039999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>48.682490000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>52.147199999999998</v>
+      </c>
+      <c r="G21" s="2">
+        <v>51.691270000000003</v>
+      </c>
+      <c r="H21" s="2">
+        <v>49.417549999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>52.190150000000003</v>
+      </c>
+      <c r="J21" s="2">
+        <v>52.719749999999998</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2">
+        <v>26.644629999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>26.972079999999998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>26.12201</v>
+      </c>
+      <c r="E22" s="2">
+        <v>27.48959</v>
+      </c>
+      <c r="F22" s="2">
+        <v>30.22504</v>
+      </c>
+      <c r="G22" s="2">
+        <v>29.09449</v>
+      </c>
+      <c r="H22" s="2">
+        <v>27.693930000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>30.4925</v>
+      </c>
+      <c r="J22" s="2">
+        <v>29.828099999999999</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2">
+        <v>74.925409999999999</v>
+      </c>
+      <c r="C23" s="2">
+        <v>73.695210000000003</v>
+      </c>
+      <c r="D23" s="2">
+        <v>72.809619999999995</v>
+      </c>
+      <c r="E23" s="2">
+        <v>75.001140000000007</v>
+      </c>
+      <c r="F23" s="2">
+        <v>77.065839999999994</v>
+      </c>
+      <c r="G23" s="2">
+        <v>76.867500000000007</v>
+      </c>
+      <c r="H23" s="2">
+        <v>74.250739999999993</v>
+      </c>
+      <c r="I23" s="2">
+        <v>76.027240000000006</v>
+      </c>
+      <c r="J23" s="2">
+        <v>75.395200000000003</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42.071779999999997</v>
+      </c>
+      <c r="C24" s="2">
+        <v>40.898670000000003</v>
+      </c>
+      <c r="D24" s="2">
+        <v>39.285760000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>42.065300000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45.684170000000002</v>
+      </c>
+      <c r="G24" s="2">
+        <v>44.91507</v>
+      </c>
+      <c r="H24" s="2">
+        <v>42.041780000000003</v>
+      </c>
+      <c r="I24" s="2">
+        <v>45.021880000000003</v>
+      </c>
+      <c r="J24" s="2">
+        <v>45.478149999999999</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2">
+        <v>62.396149999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>60.87773</v>
+      </c>
+      <c r="D25" s="2">
+        <v>60.274059999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>62.195459999999997</v>
+      </c>
+      <c r="F25" s="2">
+        <v>63.40598</v>
+      </c>
+      <c r="G25" s="2">
+        <v>63.663069999999998</v>
+      </c>
+      <c r="H25" s="2">
+        <v>62.542610000000003</v>
+      </c>
+      <c r="I25" s="2">
+        <v>63.651150000000001</v>
+      </c>
+      <c r="J25" s="2">
+        <v>63.659129999999998</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5.7020739999999996</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.2062030000000004</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.8382990000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5.8508459999999998</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6.7683239999999998</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6.7935059999999998</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5.4308059999999996</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6.3126300000000004</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6.4367570000000001</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.1253137</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.1066179</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8.2323199999999999E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.1253137</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.3653904</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.20992930000000001</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.1253137</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.3653904</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.20992930000000001</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2">
+        <v>68.914529999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <v>67.674880000000002</v>
+      </c>
+      <c r="D28" s="2">
+        <v>66.482129999999998</v>
+      </c>
+      <c r="E28" s="2">
+        <v>68.914529999999999</v>
+      </c>
+      <c r="F28" s="2">
+        <v>70.272289999999998</v>
+      </c>
+      <c r="G28" s="2">
+        <v>70.477860000000007</v>
+      </c>
+      <c r="H28" s="2">
+        <v>68.924750000000003</v>
+      </c>
+      <c r="I28" s="2">
+        <v>69.2821</v>
+      </c>
+      <c r="J28" s="2">
+        <v>68.914519999999996</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2">
+        <v>15.90391</v>
+      </c>
+      <c r="C29" s="2">
+        <v>15.9861</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15.899929999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>16.02422</v>
+      </c>
+      <c r="F29" s="2">
+        <v>18.606369999999998</v>
+      </c>
+      <c r="G29" s="2">
+        <v>18.37875</v>
+      </c>
+      <c r="H29" s="2">
+        <v>17.5548</v>
+      </c>
+      <c r="I29" s="2">
+        <v>21.828040000000001</v>
+      </c>
+      <c r="J29" s="2">
+        <v>21.969529999999999</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2">
+        <v>40.131790000000002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>38.654960000000003</v>
+      </c>
+      <c r="D30" s="2">
+        <v>37.681399999999996</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40.298090000000002</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42.564590000000003</v>
+      </c>
+      <c r="G30" s="2">
+        <v>40.486690000000003</v>
+      </c>
+      <c r="H30" s="2">
+        <v>40.44153</v>
+      </c>
+      <c r="I30" s="2">
+        <v>42.042909999999999</v>
+      </c>
+      <c r="J30" s="2">
+        <v>39.637810000000002</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2">
+        <v>39.326509999999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>39.366039999999998</v>
+      </c>
+      <c r="D31" s="2">
+        <v>39.387500000000003</v>
+      </c>
+      <c r="E31" s="2">
+        <v>39.377670000000002</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43.749180000000003</v>
+      </c>
+      <c r="G31" s="2">
+        <v>44.314239999999998</v>
+      </c>
+      <c r="H31" s="2">
+        <v>39.293599999999998</v>
+      </c>
+      <c r="I31" s="2">
+        <v>42.210740000000001</v>
+      </c>
+      <c r="J31" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2">
+        <v>49.610619999999997</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45.862749999999998</v>
+      </c>
+      <c r="D32" s="2">
+        <v>42.352789999999999</v>
+      </c>
+      <c r="E32" s="2">
+        <v>48.657470000000004</v>
+      </c>
+      <c r="F32" s="2">
+        <v>48.740430000000003</v>
+      </c>
+      <c r="G32" s="2">
+        <v>46.176870000000001</v>
+      </c>
+      <c r="H32" s="2">
+        <v>43.018180000000001</v>
+      </c>
+      <c r="I32" s="2">
+        <v>41.925719999999998</v>
+      </c>
+      <c r="J32" s="2">
+        <v>40.845730000000003</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2">
+        <v>13.848660000000001</v>
+      </c>
+      <c r="C33" s="2">
+        <v>15.33999</v>
+      </c>
+      <c r="D33" s="2">
+        <v>17.120509999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>13.802949999999999</v>
+      </c>
+      <c r="F33" s="2">
+        <v>18.89715</v>
+      </c>
+      <c r="G33" s="2">
+        <v>20.137419999999999</v>
+      </c>
+      <c r="H33" s="2">
+        <v>14.88705</v>
+      </c>
+      <c r="I33" s="2">
+        <v>20.672799999999999</v>
+      </c>
+      <c r="J33" s="2">
+        <v>20.564260000000001</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2">
+        <v>26.97118</v>
+      </c>
+      <c r="C34" s="2">
+        <v>25.24352</v>
+      </c>
+      <c r="D34" s="2">
+        <v>23.262640000000001</v>
+      </c>
+      <c r="E34" s="2">
+        <v>27.498909999999999</v>
+      </c>
+      <c r="F34" s="2">
+        <v>29.501460000000002</v>
+      </c>
+      <c r="G34" s="2">
+        <v>28.34797</v>
+      </c>
+      <c r="H34" s="2">
+        <v>33.388480000000001</v>
+      </c>
+      <c r="I34" s="2">
+        <v>34.091230000000003</v>
+      </c>
+      <c r="J34" s="2">
+        <v>33.924779999999998</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2">
+        <v>40.626829999999998</v>
+      </c>
+      <c r="C35" s="2">
+        <v>38.978949999999998</v>
+      </c>
+      <c r="D35" s="2">
+        <v>37.129910000000002</v>
+      </c>
+      <c r="E35" s="2">
+        <v>40.244079999999997</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44.56758</v>
+      </c>
+      <c r="G35" s="2">
+        <v>44.159730000000003</v>
+      </c>
+      <c r="H35" s="2">
+        <v>40.599939999999997</v>
+      </c>
+      <c r="I35" s="2">
+        <v>44.226520000000001</v>
+      </c>
+      <c r="J35" s="2">
+        <v>43.728169999999999</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <v>84.900599999999997</v>
+      </c>
+      <c r="C36" s="2">
+        <v>83.643720000000002</v>
+      </c>
+      <c r="D36" s="2">
+        <v>83.141859999999994</v>
+      </c>
+      <c r="E36" s="2">
+        <v>86.883319999999998</v>
+      </c>
+      <c r="F36" s="2">
+        <v>86.561710000000005</v>
+      </c>
+      <c r="G36" s="2">
+        <v>87.863510000000005</v>
+      </c>
+      <c r="H36" s="2">
+        <v>75.904110000000003</v>
+      </c>
+      <c r="I36" s="2">
+        <v>77.84357</v>
+      </c>
+      <c r="J36" s="2">
+        <v>82.08314</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2">
+        <v>35.18891</v>
+      </c>
+      <c r="C37" s="2">
+        <v>34.72475</v>
+      </c>
+      <c r="D37" s="2">
+        <v>33.775709999999997</v>
+      </c>
+      <c r="E37" s="2">
+        <v>35.57676</v>
+      </c>
+      <c r="F37" s="2">
+        <v>41.00808</v>
+      </c>
+      <c r="G37" s="2">
+        <v>40.705190000000002</v>
+      </c>
+      <c r="H37" s="2">
+        <v>35.633499999999998</v>
+      </c>
+      <c r="I37" s="2">
+        <v>39.504440000000002</v>
+      </c>
+      <c r="J37" s="2">
+        <v>39.227200000000003</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2">
+        <v>27.98678</v>
+      </c>
+      <c r="C38" s="2">
+        <v>28.261500000000002</v>
+      </c>
+      <c r="D38" s="2">
+        <v>28.43036</v>
+      </c>
+      <c r="E38" s="2">
+        <v>28.13757</v>
+      </c>
+      <c r="F38" s="2">
+        <v>30.141079999999999</v>
+      </c>
+      <c r="G38" s="2">
+        <v>30.036110000000001</v>
+      </c>
+      <c r="H38" s="2">
+        <v>28.43036</v>
+      </c>
+      <c r="I38" s="2">
+        <v>29.88721</v>
+      </c>
+      <c r="J38" s="2">
+        <v>29.80058</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.84242729999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.75734060000000003</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.712341</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.84242729999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.1526099999999999</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.0610390000000001</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.84242729999999999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1.1526099999999999</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1.0610390000000001</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2">
+        <v>41.176760000000002</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39.782789999999999</v>
+      </c>
+      <c r="D40" s="2">
+        <v>38.668300000000002</v>
+      </c>
+      <c r="E40" s="2">
+        <v>41.036969999999997</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43.229759999999999</v>
+      </c>
+      <c r="G40" s="2">
+        <v>41.661090000000002</v>
+      </c>
+      <c r="H40" s="2">
+        <v>40.087449999999997</v>
+      </c>
+      <c r="I40" s="2">
+        <v>41.3904</v>
+      </c>
+      <c r="J40" s="2">
+        <v>41.764690000000002</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45.305140000000002</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44.128610000000002</v>
+      </c>
+      <c r="D41" s="2">
+        <v>42.228299999999997</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45.289650000000002</v>
+      </c>
+      <c r="F41" s="2">
+        <v>46.315420000000003</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45.967979999999997</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45.289650000000002</v>
+      </c>
+      <c r="I41" s="2">
+        <v>46.23075</v>
+      </c>
+      <c r="J41" s="2">
+        <v>45.872880000000002</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2">
+        <v>48.193440000000002</v>
+      </c>
+      <c r="C42" s="2">
+        <v>46.644779999999997</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44.507950000000001</v>
+      </c>
+      <c r="E42" s="2">
+        <v>47.081919999999997</v>
+      </c>
+      <c r="F42" s="2">
+        <v>47.787610000000001</v>
+      </c>
+      <c r="G42" s="2">
+        <v>47.477600000000002</v>
+      </c>
+      <c r="H42" s="2">
+        <v>49.283810000000003</v>
+      </c>
+      <c r="I42" s="2">
+        <v>50.434759999999997</v>
+      </c>
+      <c r="J42" s="2">
+        <v>50.093249999999998</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2">
+        <v>37.952889999999996</v>
+      </c>
+      <c r="C43" s="2">
+        <v>36.577590000000001</v>
+      </c>
+      <c r="D43" s="2">
+        <v>34.74089</v>
+      </c>
+      <c r="E43" s="2">
+        <v>37.622599999999998</v>
+      </c>
+      <c r="F43" s="2">
+        <v>39.910530000000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>38.827750000000002</v>
+      </c>
+      <c r="H43" s="2">
+        <v>37.622599999999998</v>
+      </c>
+      <c r="I43" s="2">
+        <v>39.910530000000001</v>
+      </c>
+      <c r="J43" s="2">
+        <v>38.827750000000002</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="2">
+        <v>19.5869</v>
+      </c>
+      <c r="C44" s="2">
+        <v>19.701750000000001</v>
+      </c>
+      <c r="D44" s="2">
+        <v>19.707709999999999</v>
+      </c>
+      <c r="E44" s="2">
+        <v>19.701750000000001</v>
+      </c>
+      <c r="F44" s="2">
+        <v>22.53828</v>
+      </c>
+      <c r="G44" s="2">
+        <v>22.19181</v>
+      </c>
+      <c r="H44" s="2">
+        <v>19.651949999999999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>21.929449999999999</v>
+      </c>
+      <c r="J44" s="2">
+        <v>21.57469</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="2">
+        <v>58.519869999999997</v>
+      </c>
+      <c r="C45" s="2">
+        <v>58.822400000000002</v>
+      </c>
+      <c r="D45" s="2">
+        <v>59.3992</v>
+      </c>
+      <c r="E45" s="2">
+        <v>58.576740000000001</v>
+      </c>
+      <c r="F45" s="2">
+        <v>61.449890000000003</v>
+      </c>
+      <c r="G45" s="2">
+        <v>62.057980000000001</v>
+      </c>
+      <c r="H45" s="2">
+        <v>58.557130000000001</v>
+      </c>
+      <c r="I45" s="2">
+        <v>60.465110000000003</v>
+      </c>
+      <c r="J45" s="2">
+        <v>60.693489999999997</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2">
+        <v>36.374020000000002</v>
+      </c>
+      <c r="C46" s="2">
+        <v>35.948810000000002</v>
+      </c>
+      <c r="D46" s="2">
+        <v>35.694690000000001</v>
+      </c>
+      <c r="E46" s="2">
+        <v>36.106400000000001</v>
+      </c>
+      <c r="F46" s="2">
+        <v>43.072299999999998</v>
+      </c>
+      <c r="G46" s="2">
+        <v>41.992809999999999</v>
+      </c>
+      <c r="H46" s="2">
+        <v>41.860579999999999</v>
+      </c>
+      <c r="I46" s="2">
+        <v>50.356180000000002</v>
+      </c>
+      <c r="J46" s="2">
+        <v>49.959440000000001</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E2F249-C2E7-4598-876E-59ED89AEBDDD}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
